--- a/biology/Histoire de la zoologie et de la botanique/Paulo_Emilio_Vanzolini/Paulo_Emilio_Vanzolini.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paulo_Emilio_Vanzolini/Paulo_Emilio_Vanzolini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paulo Emilio Vanzolini, né le 25 avril 1924 et mort le 28 avril 2013 (à 89 ans) à São Paulo[1], est un zoologiste et un compositeur brésilien[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paulo Emilio Vanzolini, né le 25 avril 1924 et mort le 28 avril 2013 (à 89 ans) à São Paulo, est un zoologiste et un compositeur brésilien.
 Il est principalement connu pour ses morceaux de samba, et pour son travail dans le domaine de l'herpétologie.
 Une espèce de singe du Nouveau Monde, le Saki moine de Vanzolini, a été dénommé en son hommage.
 </t>
